--- a/inst/extdata/testDatacodon.xlsx
+++ b/inst/extdata/testDatacodon.xlsx
@@ -722,7 +722,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
